--- a/data/Map138.xlsx
+++ b/data/Map138.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF38AAC0-4187-4445-8501-873584384B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>自動実行</t>
   </si>
@@ -199,18 +205,138 @@
   <si>
     <t>EV015</t>
   </si>
+  <si>
+    <t>Managed to escape...</t>
+  </si>
+  <si>
+    <t>Now's not the time for that!</t>
+  </si>
+  <si>
+    <t>A chainlink fence!
+You might be able to break it by attacking!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I won't let you escape♥
+Just give up and ejaculate♥
+Hora♥ Hoora♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hoora♥
+Just give up already♥
+You can't possibly endure this♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;My apologies-♥
+I think it's about time we captured you.
+Eheeheehee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Let's go, you two!
+We're lions, and they're a rabbit.
+Now pull out all the stops to catch that rabbit.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;You're a mouse caught in a sack!
+And cats always catch their mouse, nyan!</t>
+  </si>
+  <si>
+    <t>\n&lt;LIme&gt;You're a fish on the chopping block!
+I'll cook you into something delicious-♥</t>
+  </si>
+  <si>
+    <t>A hard, round stone!
+How did this get here!?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Shall we pass them around?
+Hee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Caught you♥
+Just sit still.
+I'll suck you right up♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahahaha!
+That was quick♥ Premature ejaculator♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Mmm♥
+You came, you came♥
+Shina! Lime! Come here♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ora ora ora-♥
+I'll drain you by force, nyan♥
+Nyahahahaha♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Try to escape if you can, nya.
+I’m barely even trying♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Nyaha♥
+How's that, nya?
+Doesn't my pussy feel the best, nyaa?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You're in, nya!
+You're not getting out until you spill all that sperm, nya♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Lily! Come look, nya!
+I'm the winner, nyaan♥
+Look look look!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ora ora ora ora-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Nyahahahaha-!
+How's that, nya?
+You're no match for me, nyan♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahn, ahn, ahhn♥
+It feels so nice and big-♥
+Ahahaha-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I put it in♥
+I want you to shoot your sperm♥
+Please-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Squish squish-♥
+I'll squeeze out all your semen-♥
+I won't lose to the others-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Pump♥ Pump♥
+Wooow♥ Sex with \n[1]♥
+Your dick is sooo hard-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Cum! Cum♥
+Everyone, look-♥
+\n[1] is going to go pew-pew♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Woooow♥
+I made you cum-♥
+I'm the winner♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Kehehehe!
+You're sealed in, nyan.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -221,28 +347,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -532,260 +670,336 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.5703125" customWidth="1"/>
+    <col min="2" max="2" width="61.85546875" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="B14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="B15" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="B22" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="B30" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+      <c r="B31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="B32" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="B33" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="B39" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+      <c r="B40" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>